--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.995314333333334</v>
+        <v>0.7999296666666668</v>
       </c>
       <c r="H2">
-        <v>5.985943000000001</v>
+        <v>2.399789</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3696466666666667</v>
+        <v>0.322136</v>
       </c>
       <c r="N2">
-        <v>1.10894</v>
+        <v>0.966408</v>
       </c>
       <c r="O2">
-        <v>0.06847815280531702</v>
+        <v>0.07882597898094613</v>
       </c>
       <c r="P2">
-        <v>0.06847815280531701</v>
+        <v>0.07882597898094612</v>
       </c>
       <c r="Q2">
-        <v>0.737561292268889</v>
+        <v>0.2576861431013334</v>
       </c>
       <c r="R2">
-        <v>6.638051630420001</v>
+        <v>2.319175287912</v>
       </c>
       <c r="S2">
-        <v>0.06847815280531702</v>
+        <v>0.07882597898094613</v>
       </c>
       <c r="T2">
-        <v>0.06847815280531701</v>
+        <v>0.07882597898094612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.995314333333334</v>
+        <v>0.7999296666666668</v>
       </c>
       <c r="H3">
-        <v>5.985943000000001</v>
+        <v>2.399789</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +623,22 @@
         <v>9.92952</v>
       </c>
       <c r="O3">
-        <v>0.6131577793599756</v>
+        <v>0.8099106534826741</v>
       </c>
       <c r="P3">
-        <v>0.6131577793599756</v>
+        <v>0.8099106534826741</v>
       </c>
       <c r="Q3">
-        <v>6.604171193040001</v>
+        <v>2.64763920792</v>
       </c>
       <c r="R3">
-        <v>59.43754073736001</v>
+        <v>23.82875287128</v>
       </c>
       <c r="S3">
-        <v>0.6131577793599756</v>
+        <v>0.8099106534826741</v>
       </c>
       <c r="T3">
-        <v>0.6131577793599756</v>
+        <v>0.8099106534826741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.995314333333334</v>
+        <v>0.7999296666666668</v>
       </c>
       <c r="H4">
-        <v>5.985943000000001</v>
+        <v>2.399789</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.027417</v>
+        <v>0.438826</v>
       </c>
       <c r="N4">
-        <v>0.082251</v>
+        <v>1.316478</v>
       </c>
       <c r="O4">
-        <v>0.005079081416839622</v>
+        <v>0.1073797683347799</v>
       </c>
       <c r="P4">
-        <v>0.005079081416839621</v>
+        <v>0.1073797683347799</v>
       </c>
       <c r="Q4">
-        <v>0.05470553307700001</v>
+        <v>0.3510299359046667</v>
       </c>
       <c r="R4">
-        <v>0.4923497976930001</v>
+        <v>3.159269423142</v>
       </c>
       <c r="S4">
-        <v>0.005079081416839622</v>
+        <v>0.1073797683347799</v>
       </c>
       <c r="T4">
-        <v>0.005079081416839621</v>
+        <v>0.1073797683347799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.995314333333334</v>
+        <v>0.7999296666666668</v>
       </c>
       <c r="H5">
-        <v>5.985943000000001</v>
+        <v>2.399789</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,96 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.585966333333333</v>
+        <v>0.015871</v>
       </c>
       <c r="N5">
-        <v>4.757899</v>
+        <v>0.047613</v>
       </c>
       <c r="O5">
-        <v>0.2938050162806509</v>
+        <v>0.003883599201599933</v>
       </c>
       <c r="P5">
-        <v>0.2938050162806509</v>
+        <v>0.003883599201599933</v>
       </c>
       <c r="Q5">
-        <v>3.164501357084112</v>
+        <v>0.01269568373966667</v>
       </c>
       <c r="R5">
-        <v>28.480512213757</v>
+        <v>0.114261153657</v>
       </c>
       <c r="S5">
-        <v>0.2938050162806509</v>
+        <v>0.003883599201599933</v>
       </c>
       <c r="T5">
-        <v>0.2938050162806509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.995314333333334</v>
-      </c>
-      <c r="H6">
-        <v>5.985943000000001</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1051533333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.31546</v>
-      </c>
-      <c r="O6">
-        <v>0.0194799701372169</v>
-      </c>
-      <c r="P6">
-        <v>0.0194799701372169</v>
-      </c>
-      <c r="Q6">
-        <v>0.2098139531977778</v>
-      </c>
-      <c r="R6">
-        <v>1.88832557878</v>
-      </c>
-      <c r="S6">
-        <v>0.0194799701372169</v>
-      </c>
-      <c r="T6">
-        <v>0.0194799701372169</v>
+        <v>0.003883599201599933</v>
       </c>
     </row>
   </sheetData>
